--- a/data/planning/test118.xlsx
+++ b/data/planning/test118.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cmailcarletonca-my.sharepoint.com/personal/luislopezdiaz_cmail_carleton_ca/Documents/00 PhD Thesis/code/GridOpt.jl/data/planning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="259" documentId="13_ncr:1_{82E5F4C0-05CE-4077-A2B0-0E5F28F16310}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{74025509-B63C-4099-B986-80E1876CCC18}"/>
+  <xr:revisionPtr revIDLastSave="260" documentId="13_ncr:1_{82E5F4C0-05CE-4077-A2B0-0E5F28F16310}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E8987CAA-6087-4125-85C1-2E1A7264403E}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{2EB6A33D-59D9-42F3-B6C0-266EB8EFB110}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2EB6A33D-59D9-42F3-B6C0-266EB8EFB110}"/>
   </bookViews>
   <sheets>
     <sheet name="cand" sheetId="1" r:id="rId1"/>
@@ -509,8 +509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B6A976D-F179-4F10-87F2-DC7468625A48}">
   <dimension ref="A1:H65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -518,7 +518,7 @@
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="3" bestFit="1" customWidth="1"/>
   </cols>
@@ -6380,8 +6380,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F027225-FF00-46AF-9A5A-D05CF10EA1EE}">
   <dimension ref="A1:H119"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
